--- a/Pantone.xlsx
+++ b/Pantone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\м\Desktop\Gamma_M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3FC5E4-4BBD-4D68-AAB5-757071C0C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D694817-4F3E-4671-AB92-3D82EDF125A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33435" yWindow="6570" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Номер</t>
   </si>
@@ -31,7 +31,16 @@
     <t>Вертикаль</t>
   </si>
   <si>
-    <t xml:space="preserve">Горизноталь </t>
+    <t xml:space="preserve">там </t>
+  </si>
+  <si>
+    <t>тут</t>
+  </si>
+  <si>
+    <t>там</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горизонталь </t>
   </si>
 </sst>
 </file>
@@ -60,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,13 +92,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -394,13 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A2:E5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -410,10 +438,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>121212</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
